--- a/database/httpsniebezpiecznikpl.xlsx
+++ b/database/httpsniebezpiecznikpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B506"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6497,6 +6497,594 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23707&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Polskie firmy będą zaraz musiały chronić sygnalistów i zapewnić im możliwość zgłaszania problemów</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23719&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Klucze U2F - pytania i odpowiedzi. Dlaczego hakerzy ich nienawidzą i dlaczego warto z nich korzystać?</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23723&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Jak ofiara ataku SMS-owego została oskarżona przez prokuraturę o przywłaszczenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23728&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Hasła z przeglądarki mogą być wykradzione</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23732&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>32 pytania i odpowiedzi dotyczące Pegasusa</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/32-pytania-i-odpowiedzi-dotyczace-pegasusa/#respond</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Dodaj komentarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/32-pytania-i-odpowiedzi-dotyczace-pegasusa/</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>32 pytania i odpowiedzi dotyczące Pegasusa</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/32-pytania-i-odpowiedzi-dotyczace-pegasusa/?more</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-ofiara-ataku-sms-owego-zostala-oskarzona-przez-prokurature-o-przywlaszczenie/#comments</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>23 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-ofiara-ataku-sms-owego-zostala-oskarzona-przez-prokurature-o-przywlaszczenie/</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Jak ofiara ataku SMS-owego została oskarżona przez prokuraturę o przywłaszczenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-ofiara-ataku-sms-owego-zostala-oskarzona-przez-prokurature-o-przywlaszczenie/?more</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/klucze-u2f-pytania-i-odpowiedzi/#comments</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>68 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/klucze-u2f-pytania-i-odpowiedzi/</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Klucze U2F – pytania i odpowiedzi. Dlaczego hakerzy ich nienawidzą i dlaczego warto z nich korzystać?</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/klucze-u2f-pytania-i-odpowiedzi/?more</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/polskie-firmy-beda-zaraz-musialy-chronic-sygnalistow-i-zapewnic-im-mozliwosc-zglaszania-problemow/#comments</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>23 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/polskie-firmy-beda-zaraz-musialy-chronic-sygnalistow-i-zapewnic-im-mozliwosc-zglaszania-problemow/</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Polskie firmy będą zaraz musiały chronić sygnalistów i zapewnić im możliwość zgłaszania problemów</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/polskie-firmy-beda-zaraz-musialy-chronic-sygnalistow-i-zapewnic-im-mozliwosc-zglaszania-problemow/?more</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/r97.php</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>img src="https://niebezpiecznik.pl/wp-content/uploads/2021/12/600x500.jpg" width="330"/</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/2fa/</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2FA</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/dwuskladnikowe-uwierzytelnienie/</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>dwuskładnikowe uwierzytelnienie</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/dyrektywa-o-ochronie-sygnalistow/</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>dyrektywa o ochronie sygnalistów</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ochrona-danych/</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>ochrona danych</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/poufnosc/</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>poufność</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/slup/</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>słup</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/smishing/</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>smishing</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/socjotechnika/</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>socjotechnika</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ustawa-o-ochronie-osob-zglaszajacych-naruszenie-prawa/</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Ustawa o ochronie osób zgłaszających naruszenie prawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ustawa-o-sygnalistach/</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>ustawa o sygnalistach</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/uwierzytelnienie/</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>uwierzytelnienie</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/wyrok/</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>wyrok</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/wyroki/</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>wyroki</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/yubico/</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>yubico</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/yubikey/</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>yubikey</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/32-pytania-i-odpowiedzi-dotyczace-pegasusa/#comments</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>29 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/nie-wykorzystales-budzetu-szkoleniowego-kup-vouchery-niebezpiecznika-na-2022/#comments</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>1 komentarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/policja-zgubila-2-dyskietki/#comments</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>11 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/policja-zgubila-2-dyskietki/</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Policja zgubiła 2 dyskietki z danymi osobowymi …38 osób</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/policja-zgubila-2-dyskietki/?more</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/przeglad-wyciekow-z-chmur-z-calego-2021-roku/</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>* Przegląd wycieków z chmur z całego 2021 roku</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/regularny-zart-noworoczny/</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>* Regularny żart noworoczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tak-hasla-z-przegladarki-moga-byc-wykradzione-ale-mimo-to-warto-je-tam-zapamietywac/#comments</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>24 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tak-hasla-z-przegladarki-moga-byc-wykradzione-ale-mimo-to-warto-je-tam-zapamietywac/</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Tak, hasła z przeglądarki mogą być wykradzione, ale mimo to warto je tam zapamiętywać</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tak-hasla-z-przegladarki-moga-byc-wykradzione-ale-mimo-to-warto-je-tam-zapamietywac/?more</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/chrome/</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/dyski/</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>dyski</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/japonia/</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/menedzery-hasel/</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>menedżery haseł</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/przegladarki/</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>przeglądarki</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/redline-stealer/</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Redline Stealer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsniebezpiecznikpl.xlsx
+++ b/database/httpsniebezpiecznikpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7085,6 +7085,1386 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23862&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>[AKTUALIZACJA #2] Atak na Lotnicze Pogotwie Ratunkowe. Włamywacze zażądali 1,5 miliona złotych</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23872&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Co oznacza CHARLIE-CRP (stopień alarmowy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23895&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Wojna Rosji z Ukrainą a cyberbezpieczeństwo w Polsce. Kilka rad</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23905&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Komunikatory offline i radio. Na te chwile, kiedy padnie operator telefonii komórkowej lub zabraknie zasięgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23917&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Portal Money.pl zhackowany. Włamywacz życzył porażki Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/piotr-konieczny</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Piotr Konieczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/100-kluczy-u2f-dla-aktywistow-wspierajacych-ukraine-online/#comments</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>6 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/100-kluczy-u2f-dla-aktywistow-wspierajacych-ukraine-online/</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>100 kluczy U2F dla aktywistów wspierających Ukrainę online</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/100-kluczy-u2f-dla-aktywistow-wspierajacych-ukraine-online/?more</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/atak-na-lotnicze-pogotwie-ratunkowe/#comments</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>69 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/atak-na-lotnicze-pogotwie-ratunkowe/</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>[AKTUALIZACJA #2] Atak na Lotnicze Pogotwie Ratunkowe. Włamywacze zażądali 1,5 miliona złotych</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/atak-na-lotnicze-pogotwie-ratunkowe/?more</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/awaria-numeru-112-w-calej-polsce/#comments</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>41 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/awaria-numeru-112-w-calej-polsce/</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Awaria numeru 112 w całej Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/awaria-numeru-112-w-calej-polsce/?more</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/co-laczy-boty-telefoniczne-z-oszustami-podszywajacymi-sie-pod-pracownikow-bankow/#comments</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>111 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/co-laczy-boty-telefoniczne-z-oszustami-podszywajacymi-sie-pod-pracownikow-bankow/</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Co łączy boty typu Klara Sobieraj z oszustami podszywającymi się pod pracowników banków?</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/co-laczy-boty-telefoniczne-z-oszustami-podszywajacymi-sie-pod-pracownikow-bankow/?more</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/darmowy-live-pomoc-ukrainie/#comments</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>10 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/darmowy-live-pomoc-ukrainie/</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Zapisz się na darmowy LIVE z lcamtufem i pomóż ofiarom wojny na Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/darmowy-live-pomoc-ukrainie/?more</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-mozna-bylo-pozyskac-dane-na-temat-niezaszczepionych-polakow/#comments</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>52 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-mozna-bylo-pozyskac-dane-na-temat-niezaszczepionych-polakow/</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Jak można było pozyskać dane na temat (nie)zaszczepionych Polaków?</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-mozna-bylo-pozyskac-dane-na-temat-niezaszczepionych-polakow/?more</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/komunikatory-offline-radio/#comments</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>74 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/komunikatory-offline-radio/</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Komunikatory offline i radio. Na te chwile, kiedy padnie operator telefonii komórkowej lub zabraknie zasięgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/komunikatory-offline-radio/?more</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/nie-nikt-was-nie-podgladal-i-nie-wykradl-waszych-danych/</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>* Nie, nikt Was nie podgladał i nie wykradł Waszych danych</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/oszustwo-smd-pge/#comments</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>12 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/oszustwo-smd-pge/</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Uwaga na SMS podszywający się pod PGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/oszustwo-smd-pge/?more</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/pangulab-bvp47-nsa-backdoor/#comments</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>14 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/pangulab-bvp47-nsa-backdoor/</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Chińczycy opisali zaawansowanego backdoora NSA, którego ślady znaleziono też w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/pangulab-bvp47-nsa-backdoor/?more</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/portal-money-pl-zhackowany-przez-sily-prorosyjskie/#comments</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>27 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/portal-money-pl-zhackowany-przez-sily-prorosyjskie/</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Portal Money.pl zhackowany. Włamywacz życzył porażki Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/portal-money-pl-zhackowany-przez-sily-prorosyjskie/?more</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/rozglosnia-radiowa-zhackowala-mazdy/#comments</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>62 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/rozglosnia-radiowa-zhackowala-mazdy/</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Rozgłośnia radiowa zhackowała Mazdy</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/rozglosnia-radiowa-zhackowala-mazdy/?more</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/sms-pegazus-brejza-losko-android/#comments</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>36 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/sms-pegazus-brejza-losko-android/</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Ujawniono SMS-y, którymi Pegasus chciał infekować smartfony 2 osób powiązanych z Krzysztofem Brejzą</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/sms-pegazus-brejza-losko-android/?more</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/spam-od-hulala/</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>* Spam od HULALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/spoofing-rozmow-telefonicznych/#comments</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>70 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/spoofing-rozmow-telefonicznych/</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Spoofing rozmów telefonicznych</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/spoofing-rozmow-telefonicznych/?more</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tam-gdzie-sa-pieniadze-sa-tez-oszusci/#comments</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>27 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tam-gdzie-sa-pieniadze-sa-tez-oszusci/</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Tam gdzie są pieniądze, są też oszuści…</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tam-gdzie-sa-pieniadze-sa-tez-oszusci/?more</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/ukraina-informuje-o-atakach-ddos-na-mon-i-banki/#comments</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>11 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/ukraina-informuje-o-atakach-ddos-na-mon-i-banki/</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Ukraina informuje o atakach DDoS na MON i banki</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/ukraina-informuje-o-atakach-ddos-na-mon-i-banki/?more</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-ktos-podszywa-sie-pod-blik/#comments</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>45 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-ktos-podszywa-sie-pod-blik/</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Uwaga! Ktoś podszywa się pod BLIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-ktos-podszywa-sie-pod-blik/?more</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-pilne-wezwanie-od-komendanta-glownego-policji/#comments</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>25 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-pilne-wezwanie-od-komendanta-glownego-policji/</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Uwaga na “Pilne wezwanie od Komendanta Głównego Policji”</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-pilne-wezwanie-od-komendanta-glownego-policji/?more</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wojna-rosji-z-ukraina-a-cyberbezpieczenstwo-w-polsce-kilka-rad/#comments</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>33 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wojna-rosji-z-ukraina-a-cyberbezpieczenstwo-w-polsce-kilka-rad/</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Wojna Rosji z Ukrainą a cyberbezpieczeństwo w Polsce. Kilka rad</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wojna-rosji-z-ukraina-a-cyberbezpieczenstwo-w-polsce-kilka-rad/?more</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wprowadzono-stopien-alarmowy-charlie-crp-po-raz-pierwszy-w-polsce/#comments</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>43 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wprowadzono-stopien-alarmowy-charlie-crp-po-raz-pierwszy-w-polsce/</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Co oznacza CHARLIE-CRP (stopień alarmowy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wprowadzono-stopien-alarmowy-charlie-crp-po-raz-pierwszy-w-polsce/?more</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/112/</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/amnesty-international/</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Amnesty International</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/anonymous/</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/app_post/</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>app_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/awaria/</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>awarie</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/backdoor/</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>backdoory</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/boty/</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>boty</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/bvp47/</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Bvp47</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/callerid/</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>CallerID</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/charlie-crp/</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Charlie-CRP</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/charytatywne/</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>charytatywne</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/chiny/</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Chiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/cpr/</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>CPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/cyberalert/</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>cyberalert</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/edward-snowden/</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Edward Snowden</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/exploit/</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/jaroslaw-szymczyk/</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Jarosław Szymczyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/javascript/</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/komunikatory/</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>komunikatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/krzysztof-brejza/</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Krzysztof Brejza</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/lotnicze-pogotowie-ratunkowe/</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Lotnicze Pogotowie Ratunkowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/lpr/</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>LPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/magdalena-losko/</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Magdalena Łośko</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/mazda/</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Mazda</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/medycyna/</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>medycyna</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/michal-zalewski/</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Michał Zalewski</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/money-pl/</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>money.pl</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/nsa/</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>NSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/oszusci/</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>oszuści</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/pangulabs/</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Pangulabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/pge/</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>PGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/podszywacz/</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>podszywacz</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/polska/</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/radio/</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ratownictwo/</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>ratownictwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ryszard-brejza/</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Ryszard Brejza</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/samochody/</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>samochody</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/spoofing-sms/</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>spoofing SMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/sq9pbs/</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>SQ9PBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/teamviewer/</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>TeamViewer</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/telefon/</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/telemarketing/</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>telemarketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/terroryzm/</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>terroryzm</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/the-shadow-brokers/</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>The Shadow Brokers</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ukraina/</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Ukraina</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/usa/</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ustawa-antyterrorystyczna/</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Ustawa antyterrorystyczna</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/web/</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/wojciech-bielak/</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Wojciech Bielak</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/xtb/</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>XTB</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsniebezpiecznikpl.xlsx
+++ b/database/httpsniebezpiecznikpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8465,6 +8465,258 @@
         </is>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23880&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Uwaga na "Pilne wezwanie od Komendanta Głównego Policji"</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23886&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Chińczycy opisali zaawansowanego backdoora NSA, którego ślady znaleziono też w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/mozna-bylo-pobrac-dane-osobowe-tysiecy-sympatykow-konfederacji/#comments</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>25 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/mozna-bylo-pobrac-dane-osobowe-tysiecy-sympatykow-konfederacji/</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Można było pobrać dane osobowe tysięcy sympatyków Konfederacji</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/mozna-bylo-pobrac-dane-osobowe-tysiecy-sympatykow-konfederacji/?more</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/na-podsluchu-ukraina-cyberwojna-anonymous-i-dezinformacja/#comments</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>6 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/na-podsluchu-ukraina-cyberwojna-anonymous-i-dezinformacja/</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Na Podsłuchu: Ukraina, “cyberwojna”, Anonymous i dezinformacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/na-podsluchu-ukraina-cyberwojna-anonymous-i-dezinformacja/?more</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/ogolnopolska-awaria-telewizorow-lg-w-polsce/#comments</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>33 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/ogolnopolska-awaria-telewizorow-lg-w-polsce/</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Awaria telewizorów LG w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/ogolnopolska-awaria-telewizorow-lg-w-polsce/?more</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wez-udzial-w-szkoleniach-niebezpiecznika-za-darmo/#comments</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>15 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wez-udzial-w-szkoleniach-niebezpiecznika-za-darmo/</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Weź udział w naszych szkoleniach za darmo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/wez-udzial-w-szkoleniach-niebezpiecznika-za-darmo/?more</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/konfederacja/</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Konfederacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/lg/</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/pesel/</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>PESEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/telewizja/</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>telewizja</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/telewizory/</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>telewizory</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23950&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Weź udział w naszych szkoleniach za darmo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=23953&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Można było pobrać dane osobowe tysięcy sympatyków Konfederacji</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsniebezpiecznikpl.xlsx
+++ b/database/httpsniebezpiecznikpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8717,6 +8717,1942 @@
         </is>
       </c>
     </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="//niebezpiecznik.pl/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="//niebezpiecznik.pl/praca/"</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Praca</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="//niebezpiecznik.pl/reklama/"</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Reklama</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="//niebezpiecznik.pl/szkolenia/?tb"</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Szkolenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="//niebezpiecznik.pl/szkolenia/?tb2"</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Szkolenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="//niebezpiecznik.pl/testy-penetracyjne/?tb2"</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Audyty bezpieczeństwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://facebook.com/niebezpiecznik"</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://feeds.feedburner.com/niebezpiecznik/"</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/"</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Niebezpiecznik</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/category/kampanie/"</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Trwające ataki (Polska)</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/category/linkblog/"</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>*ptr (czyli nasz linkblog)</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/page/2/"</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>« Zobacz starsze wpisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/piotr-konieczny"</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Piotr Konieczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/100-kluczy-u2f-dla-aktywistow-wspierajacych-ukraine-online/"</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>100 kluczy U2F dla aktywistów wspierających Ukrainę online</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/100-kluczy-u2f-dla-aktywistow-wspierajacych-ukraine-online/#comments"</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>20 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/100-kluczy-u2f-dla-aktywistow-wspierajacych-ukraine-online/?more"</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/co-robia-pracownicy-kiedy-admini-nie-patrza/"</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Co robią pracownicy, kiedy admini nie patrzą?</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/co-robia-pracownicy-kiedy-admini-nie-patrza/#comments"</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>16 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/co-robia-pracownicy-kiedy-admini-nie-patrza/?more"</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/cyberatak-na-pkp-ktorego-nie-bylo/"</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>[AKTUALIZACJA #3] Błąd w przetwarzaniu czasu sparaliżował dziś PKP. I koleje w innych krajach też</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/cyberatak-na-pkp-ktorego-nie-bylo/#comments"</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>76 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/cyberatak-na-pkp-ktorego-nie-bylo/?more"</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/darmowy-live-pomoc-ukrainie/"</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Darmowy LIVE o sytuacjach kryzysowych, w realu i w sieci. Zapisz się już teraz!</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/darmowy-live-pomoc-ukrainie/#comments"</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>16 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/darmowy-live-pomoc-ukrainie/?more"</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/dostaliscie-sms-z-kodem-i-trescia-pisana-cyrylica/"</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Dostaliście SMS z kodem i treścią pisaną cyrylicą?</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/dostaliscie-sms-z-kodem-i-trescia-pisana-cyrylica/#comments"</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>30 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/dostaliscie-sms-z-kodem-i-trescia-pisana-cyrylica/?more"</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/e-learning-szkolenia-niebezpiecznika-w-formie-video-i-przez-internet/?ztlb#wyklady"</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>. Wiedzę podajemy z humorem i w przystępny dla każdego pracownika sposób. Zdalnie lub u Ciebie w firmie. Kliknij tu i zobacz opisy wykładów!</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/komunikatory-offline-radio/"</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Komunikatory offline i radio. Na te chwile, kiedy padnie operator telefonii komórkowej lub zabraknie zasięgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/komunikatory-offline-radio/#comments"</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>80 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/komunikatory-offline-radio/?more"</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/mozna-bylo-pobrac-dane-osobowe-tysiecy-sympatykow-konfederacji/"</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Można było pobrać dane osobowe tysięcy sympatyków Konfederacji</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/mozna-bylo-pobrac-dane-osobowe-tysiecy-sympatykow-konfederacji/#comments"</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>41 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/mozna-bylo-pobrac-dane-osobowe-tysiecy-sympatykow-konfederacji/?more"</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/na-podsluchu-ukraina-cyberwojna-anonymous-i-dezinformacja/"</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Na Podsłuchu: Ukraina, “cyberwojna”, Anonymous i dezinformacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/na-podsluchu-ukraina-cyberwojna-anonymous-i-dezinformacja/#comments"</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>10 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/na-podsluchu-ukraina-cyberwojna-anonymous-i-dezinformacja/?more"</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/nie-nikt-was-nie-podgladal-i-nie-wykradl-waszych-danych/"</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>* Nie, nikt Was nie podgladał i nie wykradł Waszych danych</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/niebezpiecznik-tedx-piotr-konieczny/?tb"</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>5 PORAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/notatki-z-wczorajszego-live-o-dezinformacji-z-uzyciem-osint-u/"</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Notatki z wczorajszego LIVE o dezinformacji z użyciem OSINT-u</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/notatki-z-wczorajszego-live-o-dezinformacji-z-uzyciem-osint-u/#respond"</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Dodaj komentarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/notatki-z-wczorajszego-live-o-dezinformacji-z-uzyciem-osint-u/?more"</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/numery-ksiag-wieczystych-znow-byly-widoczne-w-geoportalu-ale-to-byl-blad/"</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Numery ksiąg wieczystych znów były widoczne w Geoportalu, ale to był błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/numery-ksiag-wieczystych-znow-byly-widoczne-w-geoportalu-ale-to-byl-blad/#comments"</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>1 komentarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/numery-ksiag-wieczystych-znow-byly-widoczne-w-geoportalu-ale-to-byl-blad/?more"</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/ogolnopolska-awaria-telewizorow-lg-w-polsce/"</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Awaria telewizorów LG w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/ogolnopolska-awaria-telewizorow-lg-w-polsce/#comments"</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>46 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/ogolnopolska-awaria-telewizorow-lg-w-polsce/?more"</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/osint-bialy-wywiad-czyli-techniki-pozyskiwania-informacji-o-ludziach-i-firmach/"</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>OSINT (Biały Wywiad) czyli techniki pozyskiwania informacji o ludziach i firmach</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/osint-bialy-wywiad-czyli-techniki-pozyskiwania-informacji-o-ludziach-i-firmach/#comments"</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>125 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/osint-bialy-wywiad-czyli-techniki-pozyskiwania-informacji-o-ludziach-i-firmach/?more"</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/oszustwo-smd-pge/"</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Uwaga na SMS podszywający się pod PGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/oszustwo-smd-pge/#comments"</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>43 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/oszustwo-smd-pge/?more"</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/pangulab-bvp47-nsa-backdoor/"</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Chińczycy opisali zaawansowanego backdoora NSA, którego ślady znaleziono też w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/pangulab-bvp47-nsa-backdoor/#comments"</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>14 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/pangulab-bvp47-nsa-backdoor/?more"</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/portal-money-pl-zhackowany-przez-sily-prorosyjskie/"</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Portal Money.pl zhackowany. Włamywacz życzył porażki Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/portal-money-pl-zhackowany-przez-sily-prorosyjskie/#comments"</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>32 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/portal-money-pl-zhackowany-przez-sily-prorosyjskie/?more"</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/programisci-i-programistki-tej-konferencji-it-nie-mozecie-przegapic-mamy-dla-was-znizke-na-bilety/"</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>* Programiści i Programistki! Tej konferencji IT nie możecie przegapić! Mamy dla Was zniżkę na bilety.</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/przeglad-wyciekow-z-chmur-z-calego-2021-roku/"</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>* Przegląd wycieków z chmur z całego 2021 roku</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/rosjanie-wstrzyneli-sie-do-smsow/"</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Rosjanie wkręcili się jej do SMS-ów</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/rosjanie-wstrzyneli-sie-do-smsow/#comments"</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>53 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/rosjanie-wstrzyneli-sie-do-smsow/?more"</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/spam-od-hulala/"</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>* Spam od HULALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/szkolenie-wyklad-z-wykrywania-dezinformacji/"</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Szkolenie i wykład z wykrywania dezinformacji dla firm i LIVE dla osób prywatnych</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/szkolenie-wyklad-z-wykrywania-dezinformacji/#comments"</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/szkolenie-wyklad-z-wykrywania-dezinformacji/?more"</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/tez-dostales-wiadomosc-o-rekrutacji-pracownikow-z-rosyjskiego-adresu/"</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Też dostałeś wiadomość o rekrutacji pracowników z rosyjskiego adresu?</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/tez-dostales-wiadomosc-o-rekrutacji-pracownikow-z-rosyjskiego-adresu/#comments"</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>10 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/tez-dostales-wiadomosc-o-rekrutacji-pracownikow-z-rosyjskiego-adresu/?more"</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/uwaga-ktos-podszywa-sie-pod-blik/"</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Uwaga! Ktoś podszywa się pod BLIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/wez-udzial-w-szkoleniach-niebezpiecznika-za-darmo/"</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Weź udział w naszych szkoleniach za darmo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/wez-udzial-w-szkoleniach-niebezpiecznika-za-darmo/#comments"</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>16 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/wez-udzial-w-szkoleniach-niebezpiecznika-za-darmo/?more"</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/wojna-rosji-z-ukraina-a-cyberbezpieczenstwo-w-polsce-kilka-rad/"</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Wojna Rosji z Ukrainą a cyberbezpieczeństwo w Polsce. Kilka rad</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/wojna-rosji-z-ukraina-a-cyberbezpieczenstwo-w-polsce-kilka-rad/#comments"</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>36 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/post/wojna-rosji-z-ukraina-a-cyberbezpieczenstwo-w-polsce-kilka-rad/?more"</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/r100.php"</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/r101.php"</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/2fa/"</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2FA</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/a-r-t-y-k-u-l-s-p-o-n-s-o-r-o-w-a-n-y/"</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>ARTYKUŁ SPONSOROWANY</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/alstom/"</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Alstom</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/android/"</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/anonymous/"</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/app_post/"</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>app_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/archiwum-x/"</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Archiwum X</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/ataki/"</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>ataki</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/awaria/"</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>awarie</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/backdoor/"</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>backdoory</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/bialy-wywiad/"</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Biały Wywiad</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/bvp47/"</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Bvp47</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/charytatywne/"</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>charytatywne</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/chiny/"</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Chiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/chmura_cloud_computing/"</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>chmura</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/cyberwojna/"</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>cyberwojna</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/dane-osobowe/"</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>dane osobowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/dezinformacja/"</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>dezinformacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/dwuskladnikowe-uwierzytelnienie/"</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>dwuskładnikowe uwierzytelnienie</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/edward-snowden/"</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Edward Snowden</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/exploit/"</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/faceboo/"</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Faceboo</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/fake-newsy/"</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>fake newsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/gdpr/"</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>GDPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/geoportal/"</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Geoportal</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/google/"</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/huawei/"</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Huawei</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/imessage/"</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>imessage</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/inwigilacja/"</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>inwigilacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/javascript/"</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/komunikatory/"</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>komunikatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/konfederacja/"</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Konfederacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/ksiegi-wieczyste/"</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>księgi wieczyste</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/lg/"</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/michal-zalewski/"</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Michał Zalewski</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/microsoft/"</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/money-pl/"</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>money.pl</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/na-podsluchu/"</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>na podsłuchu</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/niebezpiecznik/"</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Niebezpiecznik</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/nsa/"</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>NSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/osint/"</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>OSINT</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/pangulabs/"</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Pangulabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/pesel/"</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>PESEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/pge/"</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>PGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/phishing/"</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>phishing</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/pieniadze/"</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>pieniądze</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/piramida/"</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>piramida</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/pkp/"</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>PKP</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/podcast/"</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/polska/"</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/praca/"</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>praca</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/prywatnosc/"</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>prywatność</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/psyop/"</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>PSYOP</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/radio/"</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/rodo/"</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>RODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/rosja/"</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Rosja</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/scam/"</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>scam</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/shadow-it/"</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Shadow IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/smieszne/"</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>śmieszne</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/smishing/"</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>smishing</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/sms/"</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/spam/"</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>SPAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/sq9pbs/"</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>SQ9PBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/szkolenia/"</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>szkolenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/telewizja/"</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>telewizja</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/telewizory/"</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>telewizory</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/the-shadow-brokers/"</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>The Shadow Brokers</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/trolle/"</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>trolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/u2f/"</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>U2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/ukraina/"</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Ukraina</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/uodo/"</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>UODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/usa/"</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/web/"</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/whatsapp/"</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>WhatsApp</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/wojciech-bielak/"</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Wojciech Bielak</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/wyciek/"</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>wyciek</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/tag/wycieki/"</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>wycieki</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://niebezpiecznik.pl/testy-penetracyjne/?tb"</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Audyty &amp;amp; Pentesty</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://sklep.niebezpiecznik.pl/?tb"</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>SKLEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://sklep.niebezpiecznik.pl/s/webinary?ztlb"</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Każdy powinien zobaczyć te webinary! Praktyczna wiedza i zrozumiały język. 6 topowych tematów — kliknij tutaj i zobacz szczegółowe opisy oraz darmowy webinar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/href="https://twitter.com/niebezpiecznik"</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsniebezpiecznikpl.xlsx
+++ b/database/httpsniebezpiecznikpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B854"/>
+  <dimension ref="A1:B954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10653,6 +10653,1202 @@
       </c>
       <c r="B854" t="inlineStr"/>
     </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=24044&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>5 rzeczy, które warto ustawić na swoim koncie w banku aby było bezpieczniejsze</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=24048&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>AirTagi Apple średnio nadają się do śledzenia kogoś w czasie rzeczywistym</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=24058&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Uwaga na maile od "FINANSE GOV" w sprawie zwrotu podatku</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=24065&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Podszyli się pod policjantów i wyciągnęli dane użytkowników od Google, Apple, Facebooka, Discorda i Twittera</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/?p=24082&amp;amp;similarpost=TOP10</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Uwaga na SMS-y dotyczące przesyłek</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/10-milionow-dolarow-nagrody-za-ruskich-hakerow/</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>* 10 milionów dolarów nagrody za ruskich hakerów</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/5-rzeczy-ktore-warto-ustawic-na-swoim-koncie-w-banku-aby-bylo-bezpieczniejsze/#comments</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>41 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/5-rzeczy-ktore-warto-ustawic-na-swoim-koncie-w-banku-aby-bylo-bezpieczniejsze/</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>5 rzeczy, które warto ustawić na swoim koncie w banku aby było bezpieczniejsze</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/5-rzeczy-ktore-warto-ustawic-na-swoim-koncie-w-banku-aby-bylo-bezpieczniejsze/?more</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/airtagi-apple-srednio-nadaja-sie-do-sledzenia-kogos-w-czasie-rzeczywistym/#comments</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>29 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/airtagi-apple-srednio-nadaja-sie-do-sledzenia-kogos-w-czasie-rzeczywistym/</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Śledziłem kogoś AirTagiem. I w sumie dalej śledzę...</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/airtagi-apple-srednio-nadaja-sie-do-sledzenia-kogos-w-czasie-rzeczywistym/?more</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/co-robia-pracownicy-kiedy-admini-nie-patrza/#comments</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>24 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/co-robia-pracownicy-kiedy-admini-nie-patrza/</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Co robią pracownicy, kiedy admini nie patrzą?</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/co-robia-pracownicy-kiedy-admini-nie-patrza/?more</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/confidence-2022-nadchodzi-czekalismy-na-to-dwa-lata-plus-znizka-na-bilety/</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>* CONFidence 2022 nadchodzi! Czekaliśmy na to dwa lata :) Plus zniżka na bilety</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/cyberatak-na-pkp-ktorego-nie-bylo/#comments</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>78 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/cyberatak-na-pkp-ktorego-nie-bylo/</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>[AKTUALIZACJA #3] Błąd w przetwarzaniu czasu sparaliżował dziś PKP. I koleje w innych krajach też</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/cyberatak-na-pkp-ktorego-nie-bylo/?more</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/czy-haker-nawrocony-to-dobry-start-do-kariery-w-bezpieczenstwie/#comments</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>7 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/czy-haker-nawrocony-to-dobry-start-do-kariery-w-bezpieczenstwie/</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Czy “haker nawrócony” to dobry start do kariery w bezpieczeństwie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/czy-haker-nawrocony-to-dobry-start-do-kariery-w-bezpieczenstwie/?more</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/czy-jestes-w-stanie-odczytac-ten-kod-wejsciowy/</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>* Czy jesteś w stanie odczytać ten kod wejściowy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/dostaliscie-sms-z-kodem-i-trescia-pisana-cyrylica/#comments</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>30 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/dostaliscie-sms-z-kodem-i-trescia-pisana-cyrylica/</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Dostaliście SMS z kodem i treścią pisaną cyrylicą?</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/dostaliscie-sms-z-kodem-i-trescia-pisana-cyrylica/?more</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/dziura-w-rzadowym-serwisie-mozna-bylo-pobrac-dane-niejawne-przedsiebiorcow-jednoosobowych/#comments</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>14 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/dziura-w-rzadowym-serwisie-mozna-bylo-pobrac-dane-niejawne-przedsiebiorcow-jednoosobowych/</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Dziura w rządowym serwisie. Można było pobrać “dane niejawne” przedsiębiorców jednoosobowych</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/dziura-w-rzadowym-serwisie-mozna-bylo-pobrac-dane-niejawne-przedsiebiorcow-jednoosobowych/?more</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-nie-dac-sie-zhackowac-2022/#comments</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>15 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-nie-dac-sie-zhackowac-2022/</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Zobacz jak nie dać się zhackować</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/jak-nie-dac-sie-zhackowac-2022/?more</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/ktos-wycial-francuzom-swiatlowody/</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>* Ktoś wyciął Francuzom światłowody</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/notatki-z-wczorajszego-live-o-dezinformacji-z-uzyciem-osint-u/#comments</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>1 komentarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/notatki-z-wczorajszego-live-o-dezinformacji-z-uzyciem-osint-u/</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Notatki z wczorajszego LIVE o dezinformacji z użyciem OSINT-u</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/notatki-z-wczorajszego-live-o-dezinformacji-z-uzyciem-osint-u/?more</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/numery-ksiag-wieczystych-znow-byly-widoczne-w-geoportalu-ale-to-byl-blad/#comments</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>50 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/numery-ksiag-wieczystych-znow-byly-widoczne-w-geoportalu-ale-to-byl-blad/</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Numery ksiąg wieczystych znów były widoczne w Geoportalu, ale to był błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/numery-ksiag-wieczystych-znow-byly-widoczne-w-geoportalu-ale-to-byl-blad/?more</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/podszyli-sie-pod-policjantow-wyciagneli-dane/#comments</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>4 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/podszyli-sie-pod-policjantow-wyciagneli-dane/</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Podszyli się pod policjantów i wyciągnęli dane użytkowników od Google, Apple, Facebooka, Discorda i Twittera</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/podszyli-sie-pod-policjantow-wyciagneli-dane/?more</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/polacy-dostaja-tajemnicze-sms-y-o-tresci-puk-puk-po-chinsku/#comments</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>53 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/polacy-dostaja-tajemnicze-sms-y-o-tresci-puk-puk-po-chinsku/</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Polacy dostają tajemnicze SMS-y o treści “puk puk”. Po chińsku</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/polacy-dostaja-tajemnicze-sms-y-o-tresci-puk-puk-po-chinsku/?more</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/rosjanie-wstrzyneli-sie-do-smsow/#comments</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>61 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/rosjanie-wstrzyneli-sie-do-smsow/</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Rosjanie wkręcili się jej do SMS-ów</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/rosjanie-wstrzyneli-sie-do-smsow/?more</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/sprzedawca-kursow-jezykowych-z-dotacjami-zobowiazany-do-zwrotu-pieniedzy-i-zmiany-praktyk/#comments</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>6 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/sprzedawca-kursow-jezykowych-z-dotacjami-zobowiazany-do-zwrotu-pieniedzy-i-zmiany-praktyk/</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Sprzedawca kursów językowych “z dotacjami” zobowiązany do zwrotu pieniędzy i zmiany praktyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/sprzedawca-kursow-jezykowych-z-dotacjami-zobowiazany-do-zwrotu-pieniedzy-i-zmiany-praktyk/?more</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/szkolenie-wyklad-z-wykrywania-dezinformacji/#comments</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/szkolenie-wyklad-z-wykrywania-dezinformacji/</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Szkolenie i wykład z wykrywania dezinformacji dla firm i LIVE dla osób prywatnych</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/szkolenie-wyklad-z-wykrywania-dezinformacji/?more</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tez-dostales-wiadomosc-o-rekrutacji-pracownikow-z-rosyjskiego-adresu/#comments</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>18 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tez-dostales-wiadomosc-o-rekrutacji-pracownikow-z-rosyjskiego-adresu/</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Też dostałeś wiadomość o rekrutacji pracowników z rosyjskiego adresu?</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/tez-dostales-wiadomosc-o-rekrutacji-pracownikow-z-rosyjskiego-adresu/?more</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-maile-od-finanse-gov-w-sprawie-zwrotu-podatku/#comments</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>5 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-maile-od-finanse-gov-w-sprawie-zwrotu-podatku/</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Uwaga na maile od “FINANSE GOV” w sprawie zwrotu podatku</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-maile-od-finanse-gov-w-sprawie-zwrotu-podatku/?more</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-sms-y-dotyczace-przesylek/#comments</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>16 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-sms-y-dotyczace-przesylek/</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Uwaga na SMS-y dotyczące przesyłek</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/post/uwaga-na-sms-y-dotyczace-przesylek/?more</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Czytaj dalej »</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/r103.php</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/0c0/</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>0c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/airtag/</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>AirTag</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/alstom/</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Alstom</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/archiwum-x/</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Archiwum X</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/biznes-gov-pl/</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Biznes.gov.pl</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/chargeback/</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>chargeback</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/discord/</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Discord</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/e-administracja/</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>e-administracja</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/faceboo/</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Faceboo</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/fake-newsy/</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>fake newsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/gdpr/</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>GDPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/geoportal/</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Geoportal</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/gps/</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/hacker/</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>hacker</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/hakerzy/</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>hakerzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/imessage/</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>imessage</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/karty-platnicze/</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>karty płatnicze</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/ksiegi-wieczyste/</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>księgi wieczyste</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/kursy-jezykowe/</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>kursy językowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/microsoft/</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/nieuczciwe-praktyki-rynkowe/</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>nieuczciwe praktyki rynkowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/oco/</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>OcO</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/panstwo/</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>państwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/piramida/</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>piramida</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/pkp/</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>PKP</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/praca/</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>praca</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/rodo/</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>RODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/shadow-it/</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Shadow IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/sledzenie/</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>śledzenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/snapchat/</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Snapchat</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/strony-rzadowe/</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>strony rządowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/trolle/</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>trolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/uodo/</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>UODO</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/uokik/</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>UOKiK</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/urzad-ochrony-danych-osobowych/</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Urząd Ochrony Danych Osobowych</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>https://niebezpiecznik.pl/tag/whatsapp/</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>WhatsApp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
